--- a/Benchmarking/amphibole/Mutch_Amphibole.xlsx
+++ b/Benchmarking/amphibole/Mutch_Amphibole.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - University of Cambridge\Postdoc\PYthonBarometers\ClassicalThermometers_20210114T090546Z_001\ClassicalThermometers\Benchmarking\Amphiboles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - Oregon State University\Postdoc\PyMME\MyBarometers\Thermobar_outer\Benchmarking\amphibole\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029A6312-4330-40CA-87CB-9E5CC9B7CB58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9306F56F-9C2E-4F8B-944A-766C38D7F83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Table_5_unformatted" sheetId="4" r:id="rId4"/>
     <sheet name="Table5_transpoted" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="500"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -531,7 +531,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -753,11 +753,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -780,46 +780,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -957,6 +917,46 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1318,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF1126D-C4BD-4BFB-B021-766C1ED98B20}">
   <dimension ref="A2:BF192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O176" sqref="O176"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10098,7 +10098,7 @@
         <v>2.6570167807297307</v>
       </c>
       <c r="P88" s="29">
-        <f t="shared" si="142"/>
+        <f>IF(SUM(P84:P87,P63)&lt;5, P63, 5-SUM(P84:P87))</f>
         <v>3.717017281868995</v>
       </c>
       <c r="Q88" s="29">
@@ -20205,16 +20205,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108:BE112">
-    <cfRule type="top10" dxfId="3" priority="18" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="18" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115:BE116">
-    <cfRule type="top10" dxfId="2" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="20" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117:BE117">
-    <cfRule type="top10" dxfId="1" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118:BE119">
-    <cfRule type="top10" dxfId="0" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="26" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33069,7 +33069,7 @@
         <v>0.31673476866303046</v>
       </c>
       <c r="D144" s="3">
-        <f t="shared" ref="C144:K144" si="97">D132*0.5</f>
+        <f t="shared" ref="D144:K144" si="97">D132*0.5</f>
         <v>0.32049102157435755</v>
       </c>
       <c r="E144" s="3">
@@ -36646,56 +36646,56 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C115:K116 P115:BL116">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108:K112 P108:BL112">
-    <cfRule type="top10" dxfId="16" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="14" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115:K116 P115:BL116">
-    <cfRule type="top10" dxfId="15" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117:K117 N117 P117:BL117">
-    <cfRule type="top10" dxfId="14" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117:K117 N117:BL117">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118:K119 N118:BL119">
-    <cfRule type="top10" dxfId="12" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118:K119 N118:BL119">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115:A116">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:A112">
-    <cfRule type="top10" dxfId="9" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115:A116">
-    <cfRule type="top10" dxfId="8" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117">
-    <cfRule type="top10" dxfId="7" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:A119">
-    <cfRule type="top10" dxfId="5" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:A119">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
